--- a/biology/Médecine/Isabelle_Lévy/Isabelle_Lévy.xlsx
+++ b/biology/Médecine/Isabelle_Lévy/Isabelle_Lévy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isabelle_L%C3%A9vy</t>
+          <t>Isabelle_Lévy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle Lévy, née en 1960 à Bône en Algérie, est une écrivaine, conférencière et formatrice française. Ses travaux relèvent notamment de la sociologie de la santé, explorant les interactions entre la santé et la société (la religion en particulier).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isabelle_L%C3%A9vy</t>
+          <t>Isabelle_Lévy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autrice de plusieurs livres sur l'hôpital[1] et sur les pratiques religieuses, les nombreux ouvrages d'Isabelle Lévy contribuent à la documentation des acteurs sociaux au sujet des évolutions de la santé et de la société (depuis 1996) ainsi qu'à la prise en compte des rites, cultures et religions dans les établissements de santé; cela dans les limites prévues par la législation française et le respect de la laïcité[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autrice de plusieurs livres sur l'hôpital et sur les pratiques religieuses, les nombreux ouvrages d'Isabelle Lévy contribuent à la documentation des acteurs sociaux au sujet des évolutions de la santé et de la société (depuis 1996) ainsi qu'à la prise en compte des rites, cultures et religions dans les établissements de santé; cela dans les limites prévues par la législation française et le respect de la laïcité.
 Isabelle Lévy s'est intéressée par ailleurs à l'histoire anecdotique des grandes découvertes médicales (physiologie et instruments) et au Prix Nobel (biographie d'Alfred Nobel, histoire du prix et de ses lauréats).
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabelle_L%C3%A9vy</t>
+          <t>Isabelle_Lévy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-Etre père dans le judaïsme, le christianisme et l'islam, Nouvelle cité, 2021.
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Etre père dans le judaïsme, le christianisme et l'islam, Nouvelle cité, 2021.
 Connaître et comprendre le judaïsme, le christianisme et l'islam, 684 p. Le Passeur, 2021
 Sang &amp; Encre, 202 p., Editions Fauves, 2019.
 Menaces religieuses sur l’hôpital, Presses de la Renaissance, 2016.
